--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-qat/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-qat/0_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.842</v>
+        <v>-1.654</v>
       </c>
       <c r="D4" t="n">
-        <v>-14269.23</v>
+        <v>-8805.26</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.035</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.021</v>
+        <v>-0.006</v>
       </c>
       <c r="D5" t="n">
-        <v>-191.3</v>
+        <v>-117.14</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.625</v>
       </c>
       <c r="C6" t="n">
-        <v>9.042999999999999</v>
+        <v>7.101</v>
       </c>
       <c r="D6" t="n">
-        <v>187.81</v>
+        <v>170.51</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.184</v>
       </c>
       <c r="C7" t="n">
-        <v>0.593</v>
+        <v>0.487</v>
       </c>
       <c r="D7" t="n">
-        <v>199.49</v>
+        <v>164.67</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>18.835</v>
+        <v>18.101</v>
       </c>
       <c r="D8" t="n">
-        <v>71.55</v>
+        <v>64.87</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.217</v>
       </c>
       <c r="C9" t="n">
-        <v>8.252000000000001</v>
+        <v>6.838</v>
       </c>
       <c r="D9" t="n">
-        <v>274.92</v>
+        <v>208.43</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>11.641</v>
       </c>
       <c r="C10" t="n">
-        <v>99</v>
+        <v>62.323</v>
       </c>
       <c r="D10" t="n">
-        <v>448.69</v>
+        <v>435.37</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.045</v>
       </c>
       <c r="C11" t="n">
-        <v>0.768</v>
+        <v>0.443</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.71</v>
+        <v>884.4400000000001</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.866</v>
+        <v>-4.272</v>
       </c>
       <c r="D12" t="n">
-        <v>6952.17</v>
+        <v>-28580</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.412</v>
       </c>
       <c r="C13" t="n">
-        <v>9.949999999999999</v>
+        <v>7.895</v>
       </c>
       <c r="D13" t="n">
-        <v>134.23</v>
+        <v>131.39</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.680421993136406</v>
+        <v>3.453130670956203</v>
       </c>
       <c r="C4" t="n">
-        <v>2.956569969654083</v>
+        <v>3.470911236036391</v>
       </c>
       <c r="D4" t="n">
-        <v>10.3</v>
+        <v>0.51</v>
       </c>
       <c r="E4" t="n">
-        <v>1.02118274494847</v>
+        <v>1.106145669886441</v>
       </c>
       <c r="F4" t="n">
-        <v>2.051300279901749</v>
+        <v>1.168302819103862</v>
       </c>
       <c r="G4" t="n">
-        <v>100.87</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.646052141006777</v>
+        <v>3.158948708108679</v>
       </c>
       <c r="C6" t="n">
-        <v>6.81724451211223</v>
+        <v>3.069815395961705</v>
       </c>
       <c r="D6" t="n">
-        <v>2.58</v>
+        <v>-2.82</v>
       </c>
       <c r="E6" t="n">
-        <v>1.85303034206721</v>
+        <v>1.221514454469085</v>
       </c>
       <c r="F6" t="n">
-        <v>2.236784293994912</v>
+        <v>1.442460507525948</v>
       </c>
       <c r="G6" t="n">
-        <v>20.71</v>
+        <v>18.09</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-qat/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-qat/0_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.019</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.654</v>
+        <v>-3.557</v>
       </c>
       <c r="D4" t="n">
-        <v>-8805.26</v>
+        <v>11756.67</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.035</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.006</v>
+        <v>-0.033</v>
       </c>
       <c r="D5" t="n">
-        <v>-117.14</v>
+        <v>-273.68</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.625</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>7.101</v>
+        <v>12.195</v>
       </c>
       <c r="D6" t="n">
-        <v>170.51</v>
+        <v>342.49</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.184</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.487</v>
+        <v>0.875</v>
       </c>
       <c r="D7" t="n">
-        <v>164.67</v>
+        <v>318.66</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>18.101</v>
+        <v>23.192</v>
       </c>
       <c r="D8" t="n">
-        <v>64.87</v>
+        <v>160.94</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.217</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>6.838</v>
+        <v>11.336</v>
       </c>
       <c r="D9" t="n">
-        <v>208.43</v>
+        <v>327.61</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.641</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>62.323</v>
+        <v>160.936</v>
       </c>
       <c r="D10" t="n">
-        <v>435.37</v>
+        <v>1259.6</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.443</v>
+        <v>3.009</v>
       </c>
       <c r="D11" t="n">
-        <v>884.4400000000001</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.015</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.272</v>
+        <v>-12.613</v>
       </c>
       <c r="D12" t="n">
-        <v>-28580</v>
+        <v>1261200</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.412</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>7.895</v>
+        <v>12.686</v>
       </c>
       <c r="D13" t="n">
-        <v>131.39</v>
+        <v>268.67</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.453130670956203</v>
+        <v>3.046049509729658</v>
       </c>
       <c r="C4" t="n">
-        <v>3.470911236036391</v>
+        <v>3.175715821129935</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51</v>
+        <v>4.26</v>
       </c>
       <c r="E4" t="n">
-        <v>1.106145669886441</v>
+        <v>0.3675347798101247</v>
       </c>
       <c r="F4" t="n">
-        <v>1.168302819103862</v>
+        <v>1.17490763912363</v>
       </c>
       <c r="G4" t="n">
-        <v>5.62</v>
+        <v>219.67</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>2.954</v>
       </c>
       <c r="C5" t="n">
-        <v>1.076</v>
+        <v>0.278</v>
       </c>
       <c r="D5" t="n">
-        <v>-63.57</v>
+        <v>-90.59</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.158948708108679</v>
+        <v>3.459243726300829</v>
       </c>
       <c r="C6" t="n">
-        <v>3.069815395961705</v>
+        <v>3.498417407174653</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.82</v>
+        <v>1.13</v>
       </c>
       <c r="E6" t="n">
-        <v>1.221514454469085</v>
+        <v>0.8536560092358071</v>
       </c>
       <c r="F6" t="n">
-        <v>1.442460507525948</v>
+        <v>0.4015247944128849</v>
       </c>
       <c r="G6" t="n">
-        <v>18.09</v>
+        <v>-52.96</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-qat/0_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-qat/0_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
